--- a/sad_memory_keywords.xlsx
+++ b/sad_memory_keywords.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b442eee93064521/Documents/TMS_EEG_project/RST_alpha/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Chenxiao/Documents/project_codes/RST_Chinese_beta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{780DEDFB-4533-A84D-B8DF-9021FF9ED5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05A4E0D2-67C2-1846-A98E-16B31388090F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E8EBA8-9474-554E-8291-5E32F8F2AFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="3460" windowWidth="34060" windowHeight="22120" xr2:uid="{C89C716F-BDC9-224D-B26C-0912D0E225A8}"/>
+    <workbookView xWindow="13840" yWindow="1060" windowWidth="34060" windowHeight="19500" xr2:uid="{C89C716F-BDC9-224D-B26C-0912D0E225A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,34 +53,34 @@
     <t>keyword4</t>
   </si>
   <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>door</t>
-  </si>
-  <si>
-    <t>noise</t>
-  </si>
-  <si>
-    <t>scream</t>
-  </si>
-  <si>
-    <t>siren</t>
-  </si>
-  <si>
-    <t>gun</t>
-  </si>
-  <si>
-    <t>homeless</t>
-  </si>
-  <si>
-    <t>street</t>
-  </si>
-  <si>
-    <t>shout</t>
-  </si>
-  <si>
-    <t>chase</t>
+    <t>争吵</t>
+  </si>
+  <si>
+    <t>考验</t>
+  </si>
+  <si>
+    <t>逃避</t>
+  </si>
+  <si>
+    <t>界线感</t>
+  </si>
+  <si>
+    <t>放下戒备</t>
+  </si>
+  <si>
+    <t>信任</t>
+  </si>
+  <si>
+    <t>夏天</t>
+  </si>
+  <si>
+    <t>失望</t>
+  </si>
+  <si>
+    <t>放弃</t>
+  </si>
+  <si>
+    <t>分手</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
